--- a/DragAndDrop/Assets/06.Data/Excel/Tutorial/Tutorial_Bitto_ping_pong_excel.xlsx
+++ b/DragAndDrop/Assets/06.Data/Excel/Tutorial/Tutorial_Bitto_ping_pong_excel.xlsx
@@ -21,13 +21,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <x:si>
+    <x:t>time</x:t>
+  </x:si>
+  <x:si>
     <x:t>action_num</x:t>
   </x:si>
   <x:si>
     <x:t>duration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>time</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -451,8 +451,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:C32"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="F30" activeCellId="0" sqref="F30:F30"/>
+    <x:sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="E33" activeCellId="0" sqref="E33:E33"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -464,13 +464,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="B1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -805,7 +805,7 @@
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="1">
-        <x:v>63.25</x:v>
+        <x:v>62.649999999999999</x:v>
       </x:c>
       <x:c r="B32" s="1">
         <x:v>3</x:v>
@@ -815,7 +815,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
 </x:worksheet>
